--- a/Bibsam_tidskriftslistor/scifree_data_aps.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_aps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
-  <si>
-    <t>Open</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -151,51 +148,6 @@
   </si>
   <si>
     <t>Physical Review Materials</t>
-  </si>
-  <si>
-    <t>1539-0756</t>
-  </si>
-  <si>
-    <t>0034-6861</t>
-  </si>
-  <si>
-    <t>Reviews of Modern Physics</t>
-  </si>
-  <si>
-    <t>1536-6065</t>
-  </si>
-  <si>
-    <t>PHYSICAL REVIEW ONLINE ARCHIVE (PROLA)</t>
-  </si>
-  <si>
-    <t>2160-3308</t>
-  </si>
-  <si>
-    <t>Physical Review X</t>
-  </si>
-  <si>
-    <t>2469-9888</t>
-  </si>
-  <si>
-    <t>Physical Review Accelerators and Beams</t>
-  </si>
-  <si>
-    <t>2469-9896</t>
-  </si>
-  <si>
-    <t>Physical Review Physics Education Research</t>
-  </si>
-  <si>
-    <t>2643-1564</t>
-  </si>
-  <si>
-    <t>Physical Review Research</t>
-  </si>
-  <si>
-    <t>1943-2879</t>
-  </si>
-  <si>
-    <t>Physics</t>
   </si>
   <si>
     <t>CC-BY</t>
@@ -525,420 +477,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
